--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H2">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I2">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J2">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>22.64431350043933</v>
+        <v>1.890738751288889</v>
       </c>
       <c r="R2">
-        <v>203.798821503954</v>
+        <v>17.0166487616</v>
       </c>
       <c r="S2">
-        <v>0.07917510208236767</v>
+        <v>0.006425083619807682</v>
       </c>
       <c r="T2">
-        <v>0.07917510208236764</v>
+        <v>0.006425083619807682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H3">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I3">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J3">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>22.61876170983067</v>
+        <v>44.26145392156622</v>
       </c>
       <c r="R3">
-        <v>203.568855388476</v>
+        <v>398.353085294096</v>
       </c>
       <c r="S3">
-        <v>0.0790857610815999</v>
+        <v>0.1504086920450895</v>
       </c>
       <c r="T3">
-        <v>0.07908576108159988</v>
+        <v>0.1504086920450896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H4">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I4">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J4">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>27.82141482685201</v>
+        <v>63.34158483677867</v>
       </c>
       <c r="R4">
-        <v>250.392733441668</v>
+        <v>570.074263531008</v>
       </c>
       <c r="S4">
-        <v>0.09727666766975152</v>
+        <v>0.2152465426067014</v>
       </c>
       <c r="T4">
-        <v>0.09727666766975149</v>
+        <v>0.2152465426067015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8223590000000001</v>
+        <v>1.609230666666667</v>
       </c>
       <c r="H5">
-        <v>2.467077</v>
+        <v>4.827692</v>
       </c>
       <c r="I5">
-        <v>0.3853014354724575</v>
+        <v>0.5482851650894511</v>
       </c>
       <c r="J5">
-        <v>0.3853014354724574</v>
+        <v>0.5482851650894512</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>37.11286074028433</v>
+        <v>51.85260640287333</v>
       </c>
       <c r="R5">
-        <v>334.015746662559</v>
+        <v>466.67345762586</v>
       </c>
       <c r="S5">
-        <v>0.1297639046387384</v>
+        <v>0.1762048468178525</v>
       </c>
       <c r="T5">
-        <v>0.1297639046387384</v>
+        <v>0.1762048468178525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H6">
         <v>2.877521</v>
       </c>
       <c r="I6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J6">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>26.41161489004911</v>
+        <v>1.126965113422222</v>
       </c>
       <c r="R6">
-        <v>237.704534010442</v>
+        <v>10.1426860208</v>
       </c>
       <c r="S6">
-        <v>0.09234734826645324</v>
+        <v>0.00382963806364462</v>
       </c>
       <c r="T6">
-        <v>0.09234734826645323</v>
+        <v>0.00382963806364462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H7">
         <v>2.877521</v>
       </c>
       <c r="I7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J7">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
-        <v>26.38181208532756</v>
+        <v>26.38181208532755</v>
       </c>
       <c r="R7">
         <v>237.436308767948</v>
       </c>
       <c r="S7">
-        <v>0.09224314373377338</v>
+        <v>0.08965032772229008</v>
       </c>
       <c r="T7">
-        <v>0.09224314373377336</v>
+        <v>0.0896503277222901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H8">
         <v>2.877521</v>
       </c>
       <c r="I8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J8">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>32.45002300859601</v>
+        <v>37.75442603652267</v>
       </c>
       <c r="R8">
-        <v>292.050207077364</v>
+        <v>339.789834328704</v>
       </c>
       <c r="S8">
-        <v>0.1134604449029078</v>
+        <v>0.1282965952525923</v>
       </c>
       <c r="T8">
-        <v>0.1134604449029078</v>
+        <v>0.1282965952525924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9591736666666667</v>
+        <v>0.9591736666666666</v>
       </c>
       <c r="H9">
         <v>2.877521</v>
       </c>
       <c r="I9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="J9">
-        <v>0.4494034729771877</v>
+        <v>0.3268025542087943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>43.28727321856744</v>
+        <v>30.90647949972833</v>
       </c>
       <c r="R9">
-        <v>389.585458967107</v>
+        <v>278.158315497555</v>
       </c>
       <c r="S9">
-        <v>0.1513525360740533</v>
+        <v>0.1050259931702672</v>
       </c>
       <c r="T9">
-        <v>0.1513525360740533</v>
+        <v>0.1050259931702672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.411586</v>
       </c>
       <c r="I10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J10">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>3.777783351063555</v>
+        <v>0.1611953703111111</v>
       </c>
       <c r="R10">
-        <v>34.00005015957199</v>
+        <v>1.4507583328</v>
       </c>
       <c r="S10">
-        <v>0.01320889601973241</v>
+        <v>0.0005477719926503524</v>
       </c>
       <c r="T10">
-        <v>0.0132088960197324</v>
+        <v>0.0005477719926503524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.411586</v>
       </c>
       <c r="I11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J11">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>3.773520509129777</v>
+        <v>3.773520509129778</v>
       </c>
       <c r="R11">
         <v>33.961684582168</v>
       </c>
       <c r="S11">
-        <v>0.01319399113223113</v>
+        <v>0.01282312788886909</v>
       </c>
       <c r="T11">
-        <v>0.01319399113223112</v>
+        <v>0.0128231278888691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>0.411586</v>
       </c>
       <c r="I12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J12">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>4.641486602535999</v>
+        <v>5.400201491029334</v>
       </c>
       <c r="R12">
-        <v>41.77337942282399</v>
+        <v>48.601813419264</v>
       </c>
       <c r="S12">
-        <v>0.016228806210557</v>
+        <v>0.01835089386094262</v>
       </c>
       <c r="T12">
-        <v>0.016228806210557</v>
+        <v>0.01835089386094263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>0.411586</v>
       </c>
       <c r="I13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325851</v>
       </c>
       <c r="J13">
-        <v>0.06428039198629262</v>
+        <v>0.04674417878325852</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>6.19159187194022</v>
+        <v>4.420705972736666</v>
       </c>
       <c r="R13">
-        <v>55.72432684746199</v>
+        <v>39.78635375463</v>
       </c>
       <c r="S13">
-        <v>0.02164869862377209</v>
+        <v>0.01502238504079643</v>
       </c>
       <c r="T13">
-        <v>0.02164869862377209</v>
+        <v>0.01502238504079644</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H14">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J14">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>5.936672730732221</v>
+        <v>0.2695594716444445</v>
       </c>
       <c r="R14">
-        <v>53.43005457659</v>
+        <v>2.4260352448</v>
       </c>
       <c r="S14">
-        <v>0.0207573821779235</v>
+        <v>0.0009160134601600003</v>
       </c>
       <c r="T14">
-        <v>0.0207573821779235</v>
+        <v>0.0009160134601600004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H15">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J15">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>5.929973803051111</v>
+        <v>6.310281695543112</v>
       </c>
       <c r="R15">
-        <v>53.36976422746</v>
+        <v>56.79253525988801</v>
       </c>
       <c r="S15">
-        <v>0.02073395959622395</v>
+        <v>0.02144351647247298</v>
       </c>
       <c r="T15">
-        <v>0.02073395959622395</v>
+        <v>0.02144351647247299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H16">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J16">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>7.293956371420001</v>
+        <v>9.030504150869335</v>
       </c>
       <c r="R16">
-        <v>65.64560734278</v>
+        <v>81.274537357824</v>
       </c>
       <c r="S16">
-        <v>0.02550308006821714</v>
+        <v>0.03068734073324687</v>
       </c>
       <c r="T16">
-        <v>0.02550308006821713</v>
+        <v>0.03068734073324687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2155983333333333</v>
+        <v>0.2294253333333333</v>
       </c>
       <c r="H17">
-        <v>0.646795</v>
+        <v>0.688276</v>
       </c>
       <c r="I17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849585</v>
       </c>
       <c r="J17">
-        <v>0.1010146995640623</v>
+        <v>0.07816810191849587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>9.729900105473888</v>
+        <v>7.392539649286666</v>
       </c>
       <c r="R17">
-        <v>87.56910094926499</v>
+        <v>66.53285684357999</v>
       </c>
       <c r="S17">
-        <v>0.03402027772169771</v>
+        <v>0.02512123125261599</v>
       </c>
       <c r="T17">
-        <v>0.0340202777216977</v>
+        <v>0.02512123125261601</v>
       </c>
     </row>
   </sheetData>
